--- a/data/trans_orig/iP30KDB3_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/iP30KDB3_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{27F72915-A840-4A03-A58D-30499EBA60FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{78AA908E-8CAA-4A4B-A740-D016AFB52A7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C1F66A2D-8942-49D9-9F14-F215235B6867}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{34DE8C41-0FB7-475A-9817-5FF6761AFB5C}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="103">
   <si>
     <t>Menores según si se utiliza aceite de oliva en casa en 2023 (Tasa respuesta: 96,61%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -71,265 +71,277 @@
     <t>Sí</t>
   </si>
   <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>90,31%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>91,63%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>90,43%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>99,12%</t>
   </si>
   <si>
     <t>97,81%</t>
   </si>
   <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>88,59%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>93,03%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
   </si>
   <si>
     <t>2,19%</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>3-7</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>8-11</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>92,63%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
   </si>
   <si>
     <t>98,15%</t>
   </si>
   <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
   </si>
   <si>
     <t>1,85%</t>
   </si>
   <si>
-    <t>2,78%</t>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -744,7 +756,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8743B80-1300-474B-AAEF-D51361A9EA60}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0308AC0-E368-4983-88B3-264FC7D45269}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -862,10 +874,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D4" s="7">
-        <v>41680</v>
+        <v>45487</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -877,10 +889,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I4" s="7">
-        <v>45281</v>
+        <v>43727</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -895,7 +907,7 @@
         <v>159</v>
       </c>
       <c r="N4" s="7">
-        <v>86961</v>
+        <v>89213</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -913,10 +925,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" s="7">
-        <v>1464</v>
+        <v>1008</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -928,10 +940,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I5" s="7">
-        <v>1012</v>
+        <v>1558</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -946,7 +958,7 @@
         <v>5</v>
       </c>
       <c r="N5" s="7">
-        <v>2475</v>
+        <v>2566</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -964,25 +976,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>83</v>
+      </c>
+      <c r="D6" s="7">
+        <v>46495</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>81</v>
       </c>
-      <c r="D6" s="7">
-        <v>43144</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>83</v>
-      </c>
       <c r="I6" s="7">
-        <v>46293</v>
+        <v>45285</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -997,7 +1009,7 @@
         <v>164</v>
       </c>
       <c r="N6" s="7">
-        <v>89436</v>
+        <v>91779</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1017,10 +1029,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="D7" s="7">
-        <v>169809</v>
+        <v>157938</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1029,28 +1041,28 @@
         <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="7">
+        <v>267</v>
+      </c>
+      <c r="I7" s="7">
+        <v>176755</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="H7" s="7">
-        <v>256</v>
-      </c>
-      <c r="I7" s="7">
-        <v>157318</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>16</v>
       </c>
       <c r="M7" s="7">
         <v>523</v>
       </c>
       <c r="N7" s="7">
-        <v>327127</v>
+        <v>334694</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>37</v>
@@ -1068,31 +1080,31 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D8" s="7">
-        <v>4908</v>
+        <v>1361</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>40</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="H8" s="7">
+        <v>8</v>
+      </c>
+      <c r="I8" s="7">
+        <v>5204</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="H8" s="7">
-        <v>2</v>
-      </c>
-      <c r="I8" s="7">
-        <v>1447</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>25</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>44</v>
@@ -1101,7 +1113,7 @@
         <v>10</v>
       </c>
       <c r="N8" s="7">
-        <v>6355</v>
+        <v>6565</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>45</v>
@@ -1119,25 +1131,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>258</v>
+      </c>
+      <c r="D9" s="7">
+        <v>159299</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>275</v>
       </c>
-      <c r="D9" s="7">
-        <v>174717</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>258</v>
-      </c>
       <c r="I9" s="7">
-        <v>158765</v>
+        <v>181959</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1152,7 +1164,7 @@
         <v>533</v>
       </c>
       <c r="N9" s="7">
-        <v>333482</v>
+        <v>341259</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1172,10 +1184,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="D10" s="7">
-        <v>201065</v>
+        <v>170977</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>49</v>
@@ -1184,37 +1196,37 @@
         <v>50</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="H10" s="7">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="I10" s="7">
-        <v>174005</v>
+        <v>210936</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="M10" s="7">
         <v>471</v>
       </c>
       <c r="N10" s="7">
-        <v>375070</v>
+        <v>381914</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1223,49 +1235,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>3</v>
+      </c>
+      <c r="D11" s="7">
+        <v>2095</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H11" s="7">
         <v>2</v>
       </c>
-      <c r="D11" s="7">
-        <v>1413</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H11" s="7">
-        <v>3</v>
-      </c>
       <c r="I11" s="7">
-        <v>2108</v>
+        <v>1554</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M11" s="7">
         <v>5</v>
       </c>
       <c r="N11" s="7">
-        <v>3521</v>
+        <v>3649</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1274,25 +1286,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>233</v>
+      </c>
+      <c r="D12" s="7">
+        <v>173072</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>243</v>
       </c>
-      <c r="D12" s="7">
-        <v>202478</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>233</v>
-      </c>
       <c r="I12" s="7">
-        <v>176113</v>
+        <v>212490</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1307,7 +1319,7 @@
         <v>476</v>
       </c>
       <c r="N12" s="7">
-        <v>378591</v>
+        <v>385563</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1321,55 +1333,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>337</v>
+      </c>
+      <c r="D13" s="7">
+        <v>271859</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="H13" s="7">
         <v>332</v>
       </c>
-      <c r="D13" s="7">
-        <v>278696</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="H13" s="7">
-        <v>337</v>
-      </c>
       <c r="I13" s="7">
-        <v>257116</v>
+        <v>291427</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="M13" s="7">
         <v>669</v>
       </c>
       <c r="N13" s="7">
-        <v>535812</v>
+        <v>563286</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1378,49 +1390,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
+        <v>4</v>
+      </c>
+      <c r="D14" s="7">
+        <v>2408</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="H14" s="7">
         <v>9</v>
       </c>
-      <c r="D14" s="7">
-        <v>10298</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="H14" s="7">
-        <v>4</v>
-      </c>
       <c r="I14" s="7">
-        <v>2322</v>
+        <v>13572</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="M14" s="7">
         <v>13</v>
       </c>
       <c r="N14" s="7">
-        <v>12621</v>
+        <v>15980</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1432,7 +1444,7 @@
         <v>341</v>
       </c>
       <c r="D15" s="7">
-        <v>288994</v>
+        <v>274267</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1447,7 +1459,7 @@
         <v>341</v>
       </c>
       <c r="I15" s="7">
-        <v>259438</v>
+        <v>304999</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1462,7 +1474,7 @@
         <v>682</v>
       </c>
       <c r="N15" s="7">
-        <v>548433</v>
+        <v>579266</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1482,49 +1494,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>904</v>
+      </c>
+      <c r="D16" s="7">
+        <v>646262</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H16" s="7">
         <v>918</v>
       </c>
-      <c r="D16" s="7">
-        <v>691250</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="H16" s="7">
-        <v>904</v>
-      </c>
       <c r="I16" s="7">
-        <v>633719</v>
+        <v>722845</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M16" s="7">
         <v>1822</v>
       </c>
       <c r="N16" s="7">
-        <v>1324970</v>
+        <v>1369107</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>34</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1533,49 +1545,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>11</v>
+      </c>
+      <c r="D17" s="7">
+        <v>6872</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="H17" s="7">
         <v>22</v>
       </c>
-      <c r="D17" s="7">
-        <v>18083</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="H17" s="7">
-        <v>11</v>
-      </c>
       <c r="I17" s="7">
-        <v>6890</v>
+        <v>21888</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="M17" s="7">
         <v>33</v>
       </c>
       <c r="N17" s="7">
-        <v>24972</v>
+        <v>28760</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1584,25 +1596,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>915</v>
+      </c>
+      <c r="D18" s="7">
+        <v>653134</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>940</v>
       </c>
-      <c r="D18" s="7">
-        <v>709333</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="7">
-        <v>915</v>
-      </c>
       <c r="I18" s="7">
-        <v>640609</v>
+        <v>744733</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1617,7 +1629,7 @@
         <v>1855</v>
       </c>
       <c r="N18" s="7">
-        <v>1349942</v>
+        <v>1397867</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -1631,7 +1643,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
